--- a/SchedulingData/dynamic16/pso/scheduling1_18.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_18.xlsx
@@ -462,37 +462,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>40.8</v>
       </c>
       <c r="E2" t="n">
-        <v>26.7</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>25.62</v>
@@ -500,21 +500,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>89.5</v>
+        <v>76.86</v>
       </c>
       <c r="E4" t="n">
-        <v>24.38</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="D5" t="n">
-        <v>49.12</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>25.788</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>76.86</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2</v>
+        <v>148.96</v>
       </c>
       <c r="E6" t="n">
-        <v>26.88</v>
+        <v>22.384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.2</v>
+        <v>148.96</v>
       </c>
       <c r="D7" t="n">
-        <v>83.3</v>
+        <v>207.36</v>
       </c>
       <c r="E7" t="n">
-        <v>23.5</v>
+        <v>18.184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>87.26000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>25.944</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.1</v>
+        <v>76.7</v>
       </c>
       <c r="E9" t="n">
-        <v>22.5</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="D10" t="n">
-        <v>47.22</v>
+        <v>144.82</v>
       </c>
       <c r="E10" t="n">
-        <v>27.448</v>
+        <v>22.748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>87.26000000000001</v>
+        <v>144.82</v>
       </c>
       <c r="D11" t="n">
-        <v>155.72</v>
+        <v>203.42</v>
       </c>
       <c r="E11" t="n">
-        <v>22.728</v>
+        <v>19.508</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>83.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>167.7</v>
+        <v>115.68</v>
       </c>
       <c r="E12" t="n">
-        <v>20.14</v>
+        <v>22.712</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47.22</v>
+        <v>203.42</v>
       </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>246.76</v>
       </c>
       <c r="E13" t="n">
-        <v>23.8</v>
+        <v>16.804</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.12</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>115.74</v>
+        <v>170.14</v>
       </c>
       <c r="E14" t="n">
-        <v>21.756</v>
+        <v>17.416</v>
       </c>
     </row>
     <row r="15">
@@ -713,36 +713,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>167.7</v>
+        <v>115.68</v>
       </c>
       <c r="D15" t="n">
-        <v>212.06</v>
+        <v>163.56</v>
       </c>
       <c r="E15" t="n">
-        <v>16.344</v>
+        <v>19.544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89.5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.6</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="17">
@@ -751,55 +751,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>115.74</v>
+        <v>170.14</v>
       </c>
       <c r="D17" t="n">
-        <v>197.14</v>
+        <v>226.26</v>
       </c>
       <c r="E17" t="n">
-        <v>17.256</v>
+        <v>14.424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>212.06</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>290.38</v>
+        <v>142.66</v>
       </c>
       <c r="E18" t="n">
-        <v>12.132</v>
+        <v>23.504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>290.38</v>
+        <v>226.26</v>
       </c>
       <c r="D19" t="n">
-        <v>329.84</v>
+        <v>294.58</v>
       </c>
       <c r="E19" t="n">
-        <v>9.316000000000001</v>
+        <v>10.212</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>329.84</v>
+        <v>163.56</v>
       </c>
       <c r="D20" t="n">
-        <v>411.5</v>
+        <v>208.66</v>
       </c>
       <c r="E20" t="n">
-        <v>4.78</v>
+        <v>16.164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>197.14</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>255.12</v>
+        <v>145.3</v>
       </c>
       <c r="E21" t="n">
-        <v>14.088</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>255.12</v>
+        <v>142.66</v>
       </c>
       <c r="D22" t="n">
-        <v>312.42</v>
+        <v>197.02</v>
       </c>
       <c r="E22" t="n">
-        <v>10.968</v>
+        <v>19.708</v>
       </c>
     </row>
     <row r="23">
@@ -865,131 +865,131 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>134.6</v>
+        <v>145.3</v>
       </c>
       <c r="D23" t="n">
-        <v>185.66</v>
+        <v>185.3</v>
       </c>
       <c r="E23" t="n">
-        <v>17.024</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>155.72</v>
+        <v>185.3</v>
       </c>
       <c r="D24" t="n">
-        <v>205.86</v>
+        <v>255.92</v>
       </c>
       <c r="E24" t="n">
-        <v>19.824</v>
+        <v>16.388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>95</v>
+        <v>294.58</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5</v>
+        <v>332.18</v>
       </c>
       <c r="E25" t="n">
-        <v>20.76</v>
+        <v>7.092</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>151.5</v>
+        <v>207.36</v>
       </c>
       <c r="D26" t="n">
-        <v>217.24</v>
+        <v>275.62</v>
       </c>
       <c r="E26" t="n">
-        <v>17.276</v>
+        <v>14.968</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>205.86</v>
+        <v>255.92</v>
       </c>
       <c r="D27" t="n">
-        <v>256.46</v>
+        <v>346.24</v>
       </c>
       <c r="E27" t="n">
-        <v>17.384</v>
+        <v>12.956</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>217.24</v>
+        <v>332.18</v>
       </c>
       <c r="D28" t="n">
-        <v>276.62</v>
+        <v>398.5</v>
       </c>
       <c r="E28" t="n">
-        <v>14.468</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>411.5</v>
+        <v>346.24</v>
       </c>
       <c r="D29" t="n">
-        <v>469.84</v>
+        <v>403.34</v>
       </c>
       <c r="E29" t="n">
-        <v>2.076</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>276.62</v>
+        <v>246.76</v>
       </c>
       <c r="D30" t="n">
-        <v>323.72</v>
+        <v>304.56</v>
       </c>
       <c r="E30" t="n">
-        <v>11.388</v>
+        <v>12.644</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>312.42</v>
+        <v>197.02</v>
       </c>
       <c r="D31" t="n">
-        <v>392.32</v>
+        <v>263.02</v>
       </c>
       <c r="E31" t="n">
-        <v>6.588</v>
+        <v>17.188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>185.66</v>
+        <v>263.02</v>
       </c>
       <c r="D32" t="n">
-        <v>227.26</v>
+        <v>316.44</v>
       </c>
       <c r="E32" t="n">
-        <v>14.504</v>
+        <v>12.976</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>128.1</v>
+        <v>304.56</v>
       </c>
       <c r="D33" t="n">
-        <v>166.66</v>
+        <v>372.92</v>
       </c>
       <c r="E33" t="n">
-        <v>19.284</v>
+        <v>9.428000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>227.26</v>
+        <v>208.66</v>
       </c>
       <c r="D34" t="n">
-        <v>278.84</v>
+        <v>271.06</v>
       </c>
       <c r="E34" t="n">
-        <v>10.976</v>
+        <v>13.044</v>
       </c>
     </row>
     <row r="35">
@@ -1093,55 +1093,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>278.84</v>
+        <v>403.34</v>
       </c>
       <c r="D35" t="n">
-        <v>343.82</v>
+        <v>475.24</v>
       </c>
       <c r="E35" t="n">
-        <v>6.608</v>
+        <v>6.236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>469.84</v>
+        <v>275.62</v>
       </c>
       <c r="D36" t="n">
-        <v>562.09</v>
+        <v>331.58</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>10.992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>562.09</v>
+        <v>372.92</v>
       </c>
       <c r="D37" t="n">
-        <v>601.87</v>
+        <v>423</v>
       </c>
       <c r="E37" t="n">
-        <v>27.712</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>392.32</v>
+        <v>398.5</v>
       </c>
       <c r="D38" t="n">
-        <v>441.52</v>
+        <v>474.28</v>
       </c>
       <c r="E38" t="n">
-        <v>3.288</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1169,131 +1169,131 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>441.52</v>
+        <v>474.28</v>
       </c>
       <c r="D39" t="n">
-        <v>501.94</v>
+        <v>524.28</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>501.94</v>
+        <v>316.44</v>
       </c>
       <c r="D40" t="n">
-        <v>574.84</v>
+        <v>356.14</v>
       </c>
       <c r="E40" t="n">
-        <v>26.36</v>
+        <v>10.136</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>256.46</v>
+        <v>331.58</v>
       </c>
       <c r="D41" t="n">
-        <v>310.6</v>
+        <v>361.18</v>
       </c>
       <c r="E41" t="n">
-        <v>14.6</v>
+        <v>8.672000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>343.82</v>
+        <v>524.28</v>
       </c>
       <c r="D42" t="n">
-        <v>397.12</v>
+        <v>593.4400000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>2.408</v>
+        <v>22.904</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>601.87</v>
+        <v>423</v>
       </c>
       <c r="D43" t="n">
-        <v>663.5700000000001</v>
+        <v>490.44</v>
       </c>
       <c r="E43" t="n">
-        <v>24.632</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>166.66</v>
+        <v>490.44</v>
       </c>
       <c r="D44" t="n">
-        <v>240.18</v>
+        <v>595.01</v>
       </c>
       <c r="E44" t="n">
-        <v>15.072</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>323.72</v>
+        <v>271.06</v>
       </c>
       <c r="D45" t="n">
-        <v>381.36</v>
+        <v>324.56</v>
       </c>
       <c r="E45" t="n">
-        <v>7.244</v>
+        <v>9.324</v>
       </c>
     </row>
     <row r="46">
@@ -1302,55 +1302,55 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>310.6</v>
+        <v>356.14</v>
       </c>
       <c r="D46" t="n">
-        <v>386.12</v>
+        <v>412.72</v>
       </c>
       <c r="E46" t="n">
-        <v>11.168</v>
+        <v>6.608</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>397.12</v>
+        <v>595.01</v>
       </c>
       <c r="D47" t="n">
-        <v>478.9</v>
+        <v>639.79</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>478.9</v>
+        <v>324.56</v>
       </c>
       <c r="D48" t="n">
-        <v>542.8</v>
+        <v>378.92</v>
       </c>
       <c r="E48" t="n">
-        <v>26.76</v>
+        <v>6.508</v>
       </c>
     </row>
     <row r="49">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>240.18</v>
+        <v>361.18</v>
       </c>
       <c r="D49" t="n">
-        <v>301.1</v>
+        <v>405.48</v>
       </c>
       <c r="E49" t="n">
-        <v>12.08</v>
+        <v>5.372</v>
       </c>
     </row>
     <row r="50">
@@ -1378,93 +1378,93 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>386.12</v>
+        <v>412.72</v>
       </c>
       <c r="D50" t="n">
-        <v>466.02</v>
+        <v>456.42</v>
       </c>
       <c r="E50" t="n">
-        <v>8.288</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>466.02</v>
+        <v>405.48</v>
       </c>
       <c r="D51" t="n">
-        <v>533.42</v>
+        <v>465.42</v>
       </c>
       <c r="E51" t="n">
-        <v>4.688</v>
+        <v>2.468</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>542.8</v>
+        <v>378.92</v>
       </c>
       <c r="D52" t="n">
-        <v>596.1</v>
+        <v>463.52</v>
       </c>
       <c r="E52" t="n">
-        <v>22.56</v>
+        <v>2.128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>301.1</v>
+        <v>456.42</v>
       </c>
       <c r="D53" t="n">
-        <v>390.68</v>
+        <v>510.52</v>
       </c>
       <c r="E53" t="n">
-        <v>7.712</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>381.36</v>
+        <v>510.52</v>
       </c>
       <c r="D54" t="n">
-        <v>455.32</v>
+        <v>582.38</v>
       </c>
       <c r="E54" t="n">
-        <v>3.448</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1473,150 +1473,150 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>596.1</v>
+        <v>475.24</v>
       </c>
       <c r="D55" t="n">
-        <v>658.9</v>
+        <v>543.24</v>
       </c>
       <c r="E55" t="n">
-        <v>18.4</v>
+        <v>2.036</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>455.32</v>
+        <v>593.4400000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>525.22</v>
+        <v>650.4400000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>19.824</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>525.22</v>
+        <v>582.38</v>
       </c>
       <c r="D57" t="n">
-        <v>613.76</v>
+        <v>656.62</v>
       </c>
       <c r="E57" t="n">
-        <v>25.296</v>
+        <v>27.216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>533.42</v>
+        <v>463.52</v>
       </c>
       <c r="D58" t="n">
-        <v>579.36</v>
+        <v>526.26</v>
       </c>
       <c r="E58" t="n">
-        <v>2.224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>390.68</v>
+        <v>526.26</v>
       </c>
       <c r="D59" t="n">
-        <v>440.38</v>
+        <v>573.48</v>
       </c>
       <c r="E59" t="n">
-        <v>4.872</v>
+        <v>27.448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>613.76</v>
+        <v>543.24</v>
       </c>
       <c r="D60" t="n">
-        <v>674.58</v>
+        <v>625.77</v>
       </c>
       <c r="E60" t="n">
-        <v>22.304</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>579.36</v>
+        <v>625.77</v>
       </c>
       <c r="D61" t="n">
-        <v>671.3099999999999</v>
+        <v>695.73</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>671.3099999999999</v>
+        <v>573.48</v>
       </c>
       <c r="D62" t="n">
-        <v>725.41</v>
+        <v>612.96</v>
       </c>
       <c r="E62" t="n">
-        <v>26.76</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="63">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>440.38</v>
+        <v>465.42</v>
       </c>
       <c r="D63" t="n">
-        <v>497.96</v>
+        <v>551.98</v>
       </c>
       <c r="E63" t="n">
-        <v>1.224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>497.96</v>
+        <v>551.98</v>
       </c>
       <c r="D64" t="n">
-        <v>582.11</v>
+        <v>615.0599999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="65">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>663.5700000000001</v>
+        <v>612.96</v>
       </c>
       <c r="D65" t="n">
-        <v>732.37</v>
+        <v>679.1</v>
       </c>
       <c r="E65" t="n">
-        <v>21.332</v>
+        <v>21.156</v>
       </c>
     </row>
     <row r="66">
@@ -1682,36 +1682,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>674.58</v>
+        <v>639.79</v>
       </c>
       <c r="D66" t="n">
-        <v>743.9400000000001</v>
+        <v>709.67</v>
       </c>
       <c r="E66" t="n">
-        <v>19.448</v>
+        <v>23.344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>574.84</v>
+        <v>615.0599999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>628.34</v>
+        <v>655.9</v>
       </c>
       <c r="E67" t="n">
-        <v>22.64</v>
+        <v>23.888</v>
       </c>
     </row>
   </sheetData>
